--- a/任务分配表.xlsx
+++ b/任务分配表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
   <si>
     <t>模块</t>
   </si>
@@ -27,6 +27,12 @@
     <t>所需时间</t>
   </si>
   <si>
+    <t>文件服务器</t>
+  </si>
+  <si>
+    <t>聊天服务器</t>
+  </si>
+  <si>
     <t>用户模块</t>
   </si>
   <si>
@@ -42,24 +48,24 @@
     <t>申请模块</t>
   </si>
   <si>
+    <t>订单模块</t>
+  </si>
+  <si>
+    <t>龚道雄</t>
+  </si>
+  <si>
+    <t>商品模块</t>
+  </si>
+  <si>
+    <t>欧阳御林</t>
+  </si>
+  <si>
+    <t>评论模块</t>
+  </si>
+  <si>
     <t>欧阳湘雄</t>
   </si>
   <si>
-    <t>订单模块</t>
-  </si>
-  <si>
-    <t>龚道雄</t>
-  </si>
-  <si>
-    <t>商品模块</t>
-  </si>
-  <si>
-    <t>欧阳御林</t>
-  </si>
-  <si>
-    <t>评论模块</t>
-  </si>
-  <si>
     <t>购物车模块</t>
   </si>
   <si>
@@ -76,6 +82,12 @@
   </si>
   <si>
     <t>店铺模块</t>
+  </si>
+  <si>
+    <t>开发工具</t>
+  </si>
+  <si>
+    <t>IDEA</t>
   </si>
 </sst>
 </file>
@@ -83,12 +95,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,21 +110,103 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -135,114 +229,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -257,19 +262,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -281,163 +436,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -453,11 +458,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -477,10 +495,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -500,201 +553,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -761,6 +766,53 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>531495</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>92075</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7734300" y="45720"/>
+          <a:ext cx="6276975" cy="4984115"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1050,18 +1102,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="11.3333333333333" customWidth="1"/>
+    <col min="6" max="6" width="11.6666666666667" customWidth="1"/>
+    <col min="7" max="7" width="11.5555555555556" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1070,122 +1124,139 @@
       </c>
       <c r="C1" t="s">
         <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
         <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
